--- a/Calculo_Zam.xlsx
+++ b/Calculo_Zam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\listu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\listu\OneDrive\Escritorio\Mi_destino_Zambrano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19D71FD-FE69-4DDA-A2E5-6278B8A71924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9B8DA-BAA1-4E25-84B5-BD030065815A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9750" windowHeight="3585" xr2:uid="{BBD330D6-5910-4841-BF93-DD9278BD2E27}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>calculo de la nota</t>
-  </si>
-  <si>
     <t>Teoria</t>
   </si>
   <si>
@@ -38,12 +35,15 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>Calculo de la Nota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +51,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,13 +109,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,59 +452,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC1EA4B-C93B-4FAE-89A6-68F95907EE31}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>70</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f>(B4*7)/100</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
         <v>75</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f>(B5*3)/100</f>
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
         <f>C4+C5</f>
         <v>7.15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
         <f>ROUND(C7,0)</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>